--- a/DMSNewVSale_2025-11-21_20-14.xlsx
+++ b/DMSNewVSale_2025-11-21_20-14.xlsx
@@ -230,6 +230,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -371,9 +377,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -683,96 +686,99 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8006:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8006:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 500MG 3 CAP</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>37:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -791,13 +797,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -2117,7 +2117,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2127,14 +2127,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2143,14 +2143,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2160,11 +2160,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -2183,7 +2183,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2197,10 +2197,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2226,14 +2226,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2242,14 +2242,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2259,14 +2259,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2292,11 +2292,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>42</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2325,14 +2325,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2348,7 +2348,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2358,14 +2358,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2391,14 +2391,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2407,14 +2407,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2424,14 +2424,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2440,14 +2440,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>11</v>
@@ -2473,14 +2473,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2490,14 +2490,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2506,14 +2506,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2556,14 +2556,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2572,14 +2572,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2589,14 +2589,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2622,14 +2622,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2645,7 +2645,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2655,14 +2655,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2671,14 +2671,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>11</v>
@@ -2704,14 +2704,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2721,14 +2721,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2750,15 +2750,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2783,18 +2783,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2836,14 +2836,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2853,14 +2853,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2886,14 +2886,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2902,14 +2902,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2919,11 +2919,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2935,14 +2935,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2952,11 +2952,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2968,14 +2968,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2985,14 +2985,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3001,14 +3001,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>11</v>
@@ -3034,14 +3034,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3051,14 +3051,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3067,14 +3067,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3084,11 +3084,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -3100,14 +3100,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3117,14 +3117,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3133,14 +3133,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3150,14 +3150,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3173,7 +3173,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3183,14 +3183,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3206,7 +3206,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3216,14 +3216,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3232,14 +3232,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3265,31 +3265,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3298,28 +3298,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3331,14 +3331,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3348,14 +3348,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3364,14 +3364,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3381,14 +3381,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3397,14 +3397,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3414,14 +3414,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3430,14 +3430,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3447,11 +3447,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3463,14 +3463,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3480,14 +3480,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3513,14 +3513,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3546,14 +3546,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3579,14 +3579,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3595,14 +3595,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3612,14 +3612,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3628,31 +3628,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3668,21 +3668,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3694,14 +3694,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3711,14 +3711,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3727,14 +3727,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3744,11 +3744,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>11</v>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3777,11 +3777,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>11</v>
@@ -3793,14 +3793,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3810,11 +3810,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>11</v>
@@ -3826,14 +3826,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3859,14 +3859,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3876,11 +3876,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3899,24 +3899,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3932,21 +3932,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>11</v>
@@ -3965,7 +3965,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3975,14 +3975,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3991,14 +3991,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4008,14 +4008,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4024,14 +4024,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4041,14 +4041,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>50</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4057,14 +4057,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4074,14 +4074,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4090,14 +4090,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4123,31 +4123,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4156,31 +4156,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4189,31 +4189,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4222,31 +4222,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4262,21 +4262,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4288,28 +4288,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4321,28 +4321,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4361,24 +4361,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>257</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4400,18 +4400,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4433,18 +4433,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4453,31 +4453,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4486,31 +4486,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4519,31 +4519,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4552,31 +4552,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4585,31 +4585,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4618,31 +4618,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4651,31 +4651,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4684,28 +4684,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>42</v>
@@ -4717,28 +4717,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>42</v>
@@ -4750,31 +4750,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4783,31 +4783,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4816,31 +4816,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4849,68 +4849,101 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="109" ht="26.25" customHeight="1">
-      <c r="N109" s="13">
-        <v>5665.0950000000003</v>
-      </c>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>286</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>110</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>130</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>207</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="N110" s="13">
+        <v>5698.8050000000003</v>
+      </c>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>287</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>288</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
         <v>289</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5429,10 +5462,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
